--- a/Datenbanken/Einkaufsliste.xlsx
+++ b/Datenbanken/Einkaufsliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\Datenbanken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07E7A3B9-3596-499B-9FA5-D06CBE4434FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB42B135-BFE5-4E8E-B210-72341A9E5B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F3122508-7298-4AE5-B90A-CBEA45EECD52}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
